--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
@@ -395,16 +395,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01086552439795815</v>
+        <v>-0.0653562112283128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9127557884360062</v>
+        <v>0.5162590491173051</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1844668833093132</v>
+        <v>-0.2635820013437095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2061979321052295</v>
+        <v>0.1328695788870839</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +414,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01725040393772213</v>
+        <v>0.01725040393772195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9021090095770991</v>
+        <v>0.8934473402079195</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2589913362128919</v>
+        <v>-0.2364422918969799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2934921440883362</v>
+        <v>0.2709430997724238</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01564798175618947</v>
+        <v>0.01564798175618928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9111623815778576</v>
+        <v>0.9032937125331343</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2605937583944245</v>
+        <v>-0.2380447140785127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2918897219068035</v>
+        <v>0.2693406775908912</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009818463971774851</v>
+        <v>0.009818463971774629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9441874326249829</v>
+        <v>0.9392296143246229</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2664232761788392</v>
+        <v>-0.2438742318629273</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2860602041223889</v>
+        <v>0.2635111598064765</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01161460772199995</v>
+        <v>0.01161460772199954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9339990249188823</v>
+        <v>0.9281405609428504</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.264627132428614</v>
+        <v>-0.2420780881127023</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2878563478726139</v>
+        <v>0.2653073035567014</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
@@ -395,16 +395,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0653562112283128</v>
+        <v>0.01086552439795815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5162590491173051</v>
+        <v>0.9127557884360062</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2635820013437095</v>
+        <v>-0.1844668833093132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1328695788870839</v>
+        <v>0.2061979321052295</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +414,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01725040393772195</v>
+        <v>0.01725040393772213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8934473402079195</v>
+        <v>0.9021090095770991</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2364422918969799</v>
+        <v>-0.2589913362128919</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2709430997724238</v>
+        <v>0.2934921440883362</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01564798175618928</v>
+        <v>0.01564798175618947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9032937125331343</v>
+        <v>0.9111623815778576</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2380447140785127</v>
+        <v>-0.2605937583944245</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2693406775908912</v>
+        <v>0.2918897219068035</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009818463971774629</v>
+        <v>0.009818463971774851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9392296143246229</v>
+        <v>0.9441874326249829</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2438742318629273</v>
+        <v>-0.2664232761788392</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2635111598064765</v>
+        <v>0.2860602041223889</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01161460772199954</v>
+        <v>0.01161460772199995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9281405609428504</v>
+        <v>0.9339990249188823</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2420780881127023</v>
+        <v>-0.264627132428614</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2653073035567014</v>
+        <v>0.2878563478726139</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0653562112283128</v>
+        <v>-0.06535621122831298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5162590491173051</v>
+        <v>0.516259049117304</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2635820013437095</v>
+        <v>-0.2635820013437097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1328695788870839</v>
+        <v>0.1328695788870837</v>
       </c>
     </row>
     <row r="3">
@@ -414,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01725040393772195</v>
+        <v>0.01725040393772198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8934473402079195</v>
+        <v>0.8934473402079193</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2364422918969799</v>
+        <v>-0.2364422918969798</v>
       </c>
       <c r="E3" t="n">
         <v>0.2709430997724238</v>
@@ -433,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01564798175618928</v>
+        <v>0.01564798175618927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9032937125331343</v>
+        <v>0.9032937125331344</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2380447140785127</v>
+        <v>-0.2380447140785126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2693406775908912</v>
+        <v>0.2693406775908911</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009818463971774629</v>
+        <v>0.009818463971774707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9392296143246229</v>
+        <v>0.9392296143246225</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2438742318629273</v>
+        <v>-0.2438742318629272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2635111598064765</v>
+        <v>0.2635111598064766</v>
       </c>
     </row>
     <row r="6">
@@ -471,19 +538,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01161460772199954</v>
+        <v>0.01161460772199983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9281405609428504</v>
+        <v>0.9281405609428486</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2420780881127023</v>
+        <v>-0.242078088112702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2653073035567014</v>
+        <v>0.2653073035567017</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_estimates_csd_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -462,16 +395,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06535621122831298</v>
+        <v>-0.0653562112283128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516259049117304</v>
+        <v>0.5162590491173051</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2635820013437097</v>
+        <v>-0.2635820013437095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1328695788870837</v>
+        <v>0.1328695788870839</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +414,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01725040393772198</v>
+        <v>0.01725040393772195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8934473402079193</v>
+        <v>0.8934473402079195</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2364422918969798</v>
+        <v>-0.2364422918969799</v>
       </c>
       <c r="E3" t="n">
         <v>0.2709430997724238</v>
@@ -500,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01564798175618927</v>
+        <v>0.01564798175618928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9032937125331344</v>
+        <v>0.9032937125331343</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2380447140785126</v>
+        <v>-0.2380447140785127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2693406775908911</v>
+        <v>0.2693406775908912</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009818463971774707</v>
+        <v>0.009818463971774629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9392296143246225</v>
+        <v>0.9392296143246229</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2438742318629272</v>
+        <v>-0.2438742318629273</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2635111598064766</v>
+        <v>0.2635111598064765</v>
       </c>
     </row>
     <row r="6">
@@ -538,19 +471,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01161460772199983</v>
+        <v>0.01161460772199954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9281405609428486</v>
+        <v>0.9281405609428504</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.242078088112702</v>
+        <v>-0.2420780881127023</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2653073035567017</v>
+        <v>0.2653073035567014</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>